--- a/module/waapi/waapi_音频资源导入自动化/SilverPalace战斗音频需求资源管理表.xlsx
+++ b/module/waapi/waapi_音频资源导入自动化/SilverPalace战斗音频需求资源管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="角色需求进度总表" sheetId="2" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1751">
   <si>
     <t>需求描述</t>
   </si>
@@ -3876,6 +3876,9 @@
     <t>Mon_Werewolf_Born_Transform</t>
   </si>
   <si>
+    <t>Mon_Mob_Skill_M01_Born_Trans_LP</t>
+  </si>
+  <si>
     <t>非战跳跃</t>
   </si>
   <si>
@@ -3900,7 +3903,7 @@
     <t>Mon_Werewolf_Jump_End</t>
   </si>
   <si>
-    <t>Mon_Mob_Skill_M01_Jump_End</t>
+    <t>Mon_Mob_Skill_M01_Jump</t>
   </si>
   <si>
     <t>原地出生动作</t>
@@ -5156,7 +5159,7 @@
     <t>Player_FS_HighHeel_Gen_Slide</t>
   </si>
   <si>
-    <t>Char_Mov_Gen_HHeel_Slide_Gen</t>
+    <t>Char_Mov_Gen_HHeel_Slide_Gen_LP</t>
   </si>
   <si>
     <t>脚步擦地面声，loop</t>
@@ -5272,9 +5275,6 @@
     <t>Player_FS_HeelBoots_Wood_Walk</t>
   </si>
   <si>
-    <t>Char_Mov_Gen_Boot_Walk_Wood</t>
-  </si>
-  <si>
     <t>Player_FS_HeelBoots_Dirt_Run</t>
   </si>
   <si>
@@ -5347,6 +5347,9 @@
     <t>ard-21LUFS
 女
 普通衣物，带装饰，偏女性化装饰，参考富婆萝莉</t>
+  </si>
+  <si>
+    <t>Char_Mov_Gen_HHeel_Slide_Gen</t>
   </si>
   <si>
     <t>细高跟鞋</t>
@@ -8741,7 +8744,7 @@
   </sheetPr>
   <dimension ref="A1:AD184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="J166" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -22608,11 +22611,11 @@
   <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -22816,7 +22819,7 @@
         <v>1216</v>
       </c>
       <c r="O4" s="122" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="P4" s="147">
         <v>1</v>
@@ -22840,7 +22843,7 @@
       <c r="B5" s="115"/>
       <c r="C5" s="120"/>
       <c r="D5" s="121" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
@@ -22853,13 +22856,13 @@
         <v>121</v>
       </c>
       <c r="M5" s="121" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="N5" s="148" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O5" s="122" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="P5" s="149">
         <v>1</v>
@@ -22883,12 +22886,12 @@
       <c r="B6" s="115"/>
       <c r="C6" s="120"/>
       <c r="D6" s="121" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="122" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H6" s="122"/>
       <c r="I6" s="122"/>
@@ -22898,13 +22901,13 @@
         <v>121</v>
       </c>
       <c r="M6" s="121" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="N6" s="148" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O6" s="122" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="P6" s="149">
         <v>1</v>
@@ -22928,12 +22931,12 @@
       <c r="B7" s="115"/>
       <c r="C7" s="120"/>
       <c r="D7" s="121" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="122" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H7" s="122"/>
       <c r="I7" s="122"/>
@@ -22944,10 +22947,10 @@
       </c>
       <c r="M7" s="121"/>
       <c r="N7" s="148" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="O7" s="122" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="P7" s="149">
         <v>1</v>
@@ -22971,12 +22974,12 @@
       <c r="B8" s="115"/>
       <c r="C8" s="120"/>
       <c r="D8" s="122" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E8" s="121"/>
       <c r="F8" s="121"/>
       <c r="G8" s="122" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H8" s="122"/>
       <c r="I8" s="122"/>
@@ -22986,13 +22989,13 @@
         <v>121</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="N8" s="148" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="O8" s="122" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="P8" s="149">
         <v>1</v>
@@ -23021,7 +23024,7 @@
       <c r="E9" s="121"/>
       <c r="F9" s="121"/>
       <c r="G9" s="122" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H9" s="122"/>
       <c r="I9" s="122"/>
@@ -23031,13 +23034,13 @@
         <v>121</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="N9" s="148" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="O9" s="122" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="P9" s="149">
         <v>3</v>
@@ -23060,13 +23063,13 @@
       <c r="A10" s="33"/>
       <c r="B10" s="115"/>
       <c r="C10" s="120" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D10" s="122"/>
       <c r="E10" s="121"/>
       <c r="F10" s="121"/>
       <c r="G10" s="122" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H10" s="122"/>
       <c r="I10" s="122"/>
@@ -23076,13 +23079,13 @@
         <v>121</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="N10" s="148" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="P10" s="149">
         <v>3</v>
@@ -23111,7 +23114,7 @@
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="122" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H11" s="122"/>
       <c r="I11" s="122"/>
@@ -23121,13 +23124,13 @@
         <v>121</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="N11" s="148" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="O11" s="122" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="P11" s="149">
         <v>3</v>
@@ -23150,13 +23153,13 @@
       <c r="A12" s="33"/>
       <c r="B12" s="115"/>
       <c r="C12" s="120" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D12" s="122"/>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
       <c r="G12" s="122" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H12" s="122"/>
       <c r="I12" s="122"/>
@@ -23166,13 +23169,13 @@
         <v>50</v>
       </c>
       <c r="M12" s="121" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N12" s="148" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="O12" s="122" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="P12" s="149">
         <v>1</v>
@@ -23195,10 +23198,10 @@
       <c r="A13" s="33"/>
       <c r="B13" s="115"/>
       <c r="C13" s="120" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
@@ -23212,10 +23215,10 @@
       </c>
       <c r="M13" s="121"/>
       <c r="N13" s="148" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="O13" s="122" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="P13" s="149">
         <v>1</v>
@@ -23239,7 +23242,7 @@
       <c r="B14" s="115"/>
       <c r="C14" s="120"/>
       <c r="D14" s="122" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E14" s="121"/>
       <c r="F14" s="121"/>
@@ -23253,10 +23256,10 @@
       </c>
       <c r="M14" s="121"/>
       <c r="N14" s="148" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="O14" s="122" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="P14" s="149">
         <v>1</v>
@@ -23280,7 +23283,7 @@
       <c r="B15" s="115"/>
       <c r="C15" s="120"/>
       <c r="D15" s="122" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
@@ -23294,10 +23297,10 @@
       </c>
       <c r="M15" s="121"/>
       <c r="N15" s="148" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="O15" s="122" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="P15" s="149">
         <v>1</v>
@@ -23321,12 +23324,12 @@
       <c r="B16" s="115"/>
       <c r="C16" s="120"/>
       <c r="D16" s="122" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E16" s="121"/>
       <c r="F16" s="121"/>
       <c r="G16" s="122" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H16" s="122"/>
       <c r="I16" s="122"/>
@@ -23337,10 +23340,10 @@
       </c>
       <c r="M16" s="121"/>
       <c r="N16" s="148" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O16" s="122" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="P16" s="149">
         <v>1</v>
@@ -23363,7 +23366,7 @@
       <c r="A17" s="33"/>
       <c r="B17" s="115"/>
       <c r="C17" s="120" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D17" s="122"/>
       <c r="E17" s="121"/>
@@ -23378,10 +23381,10 @@
       </c>
       <c r="M17" s="121"/>
       <c r="N17" s="148" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="O17" s="122" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="P17" s="149"/>
       <c r="Q17" s="121"/>
@@ -23402,10 +23405,10 @@
       <c r="A18" s="33"/>
       <c r="B18" s="115"/>
       <c r="C18" s="120" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E18" s="121"/>
       <c r="F18" s="121"/>
@@ -23418,13 +23421,13 @@
         <v>202</v>
       </c>
       <c r="M18" s="121" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="N18" s="148" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="O18" s="122" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="P18" s="149">
         <v>3</v>
@@ -23448,7 +23451,7 @@
       <c r="B19" s="115"/>
       <c r="C19" s="120"/>
       <c r="D19" s="122" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E19" s="121"/>
       <c r="F19" s="121"/>
@@ -23461,13 +23464,13 @@
         <v>202</v>
       </c>
       <c r="M19" s="121" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="N19" s="148" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="O19" s="122" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="P19" s="149">
         <v>3</v>
@@ -23476,7 +23479,7 @@
       <c r="R19" s="121"/>
       <c r="S19" s="121"/>
       <c r="T19" s="121" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="U19" s="121"/>
       <c r="V19" s="121"/>
@@ -23506,13 +23509,13 @@
         <v>202</v>
       </c>
       <c r="M20" s="121" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="N20" s="148" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O20" s="122" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="P20" s="149"/>
       <c r="Q20" s="121"/>
@@ -23534,7 +23537,7 @@
       <c r="B21" s="115"/>
       <c r="C21" s="120"/>
       <c r="D21" s="122" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
@@ -23548,10 +23551,10 @@
       </c>
       <c r="M21" s="121"/>
       <c r="N21" s="148" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="O21" s="122" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="P21" s="149">
         <v>3</v>
@@ -23560,7 +23563,7 @@
       <c r="R21" s="121"/>
       <c r="S21" s="121"/>
       <c r="T21" s="121" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="U21" s="121"/>
       <c r="V21" s="121"/>
@@ -23577,7 +23580,7 @@
       <c r="B22" s="115"/>
       <c r="C22" s="120"/>
       <c r="D22" s="122" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
@@ -23590,13 +23593,13 @@
         <v>50</v>
       </c>
       <c r="M22" s="121" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="N22" s="148" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="O22" s="122" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="P22" s="149">
         <v>3</v>
@@ -23620,7 +23623,7 @@
       <c r="B23" s="115"/>
       <c r="C23" s="120"/>
       <c r="D23" s="122" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E23" s="121"/>
       <c r="F23" s="121"/>
@@ -23633,13 +23636,13 @@
         <v>202</v>
       </c>
       <c r="M23" s="121" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N23" s="148" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="O23" s="122" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="P23" s="149">
         <v>3</v>
@@ -23648,7 +23651,7 @@
       <c r="R23" s="121"/>
       <c r="S23" s="121"/>
       <c r="T23" s="121" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="U23" s="121"/>
       <c r="V23" s="121"/>
@@ -23665,7 +23668,7 @@
       <c r="B24" s="115"/>
       <c r="C24" s="120"/>
       <c r="D24" s="122" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
@@ -23678,13 +23681,13 @@
         <v>202</v>
       </c>
       <c r="M24" s="121" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="N24" s="148" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="O24" s="122" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="P24" s="149">
         <v>3</v>
@@ -23693,7 +23696,7 @@
       <c r="R24" s="121"/>
       <c r="S24" s="121"/>
       <c r="T24" s="121" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="U24" s="121"/>
       <c r="V24" s="121"/>
@@ -23710,7 +23713,7 @@
       <c r="B25" s="115"/>
       <c r="C25" s="120"/>
       <c r="D25" s="122" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
@@ -23723,13 +23726,13 @@
         <v>202</v>
       </c>
       <c r="M25" s="121" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="N25" s="148" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="O25" s="122" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="P25" s="149">
         <v>3</v>
@@ -23753,7 +23756,7 @@
       <c r="B26" s="115"/>
       <c r="C26" s="120"/>
       <c r="D26" s="122" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
@@ -23766,13 +23769,13 @@
         <v>202</v>
       </c>
       <c r="M26" s="121" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="N26" s="148" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="O26" s="122" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="P26" s="149">
         <v>3</v>
@@ -23795,10 +23798,10 @@
       <c r="A27" s="33"/>
       <c r="B27" s="115"/>
       <c r="C27" s="120" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D27" s="122" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
@@ -23812,10 +23815,10 @@
       </c>
       <c r="M27" s="121"/>
       <c r="N27" s="148" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="O27" s="122" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="P27" s="149">
         <v>3</v>
@@ -23839,7 +23842,7 @@
       <c r="B28" s="115"/>
       <c r="C28" s="120"/>
       <c r="D28" s="122" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E28" s="121"/>
       <c r="F28" s="121"/>
@@ -23853,10 +23856,10 @@
       </c>
       <c r="M28" s="121"/>
       <c r="N28" s="148" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="O28" s="122" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="P28" s="149">
         <v>3</v>
@@ -23880,7 +23883,7 @@
       <c r="B29" s="115"/>
       <c r="C29" s="120"/>
       <c r="D29" s="122" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
@@ -23894,10 +23897,10 @@
       </c>
       <c r="M29" s="121"/>
       <c r="N29" s="148" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="O29" s="122" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="P29" s="149">
         <v>3</v>
@@ -23921,7 +23924,7 @@
       <c r="B30" s="115"/>
       <c r="C30" s="120"/>
       <c r="D30" s="122" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E30" s="121"/>
       <c r="F30" s="121"/>
@@ -23935,10 +23938,10 @@
       </c>
       <c r="M30" s="121"/>
       <c r="N30" s="148" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="O30" s="122" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="P30" s="149">
         <v>3</v>
@@ -23962,7 +23965,7 @@
       <c r="B31" s="115"/>
       <c r="C31" s="120"/>
       <c r="D31" s="122" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E31" s="121"/>
       <c r="F31" s="121"/>
@@ -23976,10 +23979,10 @@
       </c>
       <c r="M31" s="121"/>
       <c r="N31" s="148" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="O31" s="122" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="P31" s="149">
         <v>3</v>
@@ -24008,7 +24011,7 @@
       <c r="E32" s="121"/>
       <c r="F32" s="121"/>
       <c r="G32" s="122" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H32" s="122"/>
       <c r="I32" s="122"/>
@@ -24019,10 +24022,10 @@
       </c>
       <c r="M32" s="121"/>
       <c r="N32" s="148" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="O32" s="122" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="P32" s="149">
         <v>3</v>
@@ -24060,10 +24063,10 @@
       </c>
       <c r="M33" s="121"/>
       <c r="N33" s="148" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="O33" s="122" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="P33" s="149">
         <v>3</v>
@@ -24087,7 +24090,7 @@
       <c r="B34" s="115"/>
       <c r="C34" s="120"/>
       <c r="D34" s="122" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E34" s="121"/>
       <c r="F34" s="121"/>
@@ -24101,10 +24104,10 @@
       </c>
       <c r="M34" s="121"/>
       <c r="N34" s="148" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="O34" s="122" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="P34" s="149">
         <v>3</v>
@@ -24128,7 +24131,7 @@
       <c r="B35" s="115"/>
       <c r="C35" s="120"/>
       <c r="D35" s="122" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E35" s="121"/>
       <c r="F35" s="121"/>
@@ -24142,10 +24145,10 @@
       </c>
       <c r="M35" s="121"/>
       <c r="N35" s="148" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="O35" s="122" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="P35" s="149">
         <v>3</v>
@@ -24169,7 +24172,7 @@
       <c r="B36" s="115"/>
       <c r="C36" s="124"/>
       <c r="D36" s="125" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E36" s="126"/>
       <c r="F36" s="126"/>
@@ -24183,10 +24186,10 @@
       </c>
       <c r="M36" s="126"/>
       <c r="N36" s="150" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="O36" s="125" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="P36" s="151">
         <v>3</v>
@@ -24210,7 +24213,7 @@
       <c r="B37" s="115"/>
       <c r="C37" s="120"/>
       <c r="D37" s="122" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
@@ -24224,10 +24227,10 @@
       </c>
       <c r="M37" s="121"/>
       <c r="N37" s="148" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="O37" s="122" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="P37" s="149">
         <v>3</v>
@@ -24251,7 +24254,7 @@
       <c r="B38" s="115"/>
       <c r="C38" s="120"/>
       <c r="D38" s="122" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E38" s="121"/>
       <c r="F38" s="121"/>
@@ -24265,10 +24268,10 @@
       </c>
       <c r="M38" s="121"/>
       <c r="N38" s="148" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="O38" s="122" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="P38" s="149">
         <v>3</v>
@@ -24292,7 +24295,7 @@
       <c r="B39" s="115"/>
       <c r="C39" s="120"/>
       <c r="D39" s="122" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E39" s="121"/>
       <c r="F39" s="121"/>
@@ -24306,10 +24309,10 @@
       </c>
       <c r="M39" s="121"/>
       <c r="N39" s="148" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="O39" s="122" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="P39" s="149">
         <v>3</v>
@@ -24333,7 +24336,7 @@
       <c r="B40" s="115"/>
       <c r="C40" s="120"/>
       <c r="D40" s="122" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E40" s="121"/>
       <c r="F40" s="121"/>
@@ -24347,10 +24350,10 @@
       </c>
       <c r="M40" s="121"/>
       <c r="N40" s="148" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="O40" s="122" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="P40" s="149">
         <v>3</v>
@@ -24374,7 +24377,7 @@
       <c r="B41" s="115"/>
       <c r="C41" s="120"/>
       <c r="D41" s="122" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E41" s="121"/>
       <c r="F41" s="121"/>
@@ -24388,10 +24391,10 @@
       </c>
       <c r="M41" s="121"/>
       <c r="N41" s="148" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="O41" s="122" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="P41" s="149">
         <v>3</v>
@@ -24415,7 +24418,7 @@
       <c r="B42" s="115"/>
       <c r="C42" s="120"/>
       <c r="D42" s="122" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E42" s="121"/>
       <c r="F42" s="121"/>
@@ -24428,13 +24431,13 @@
         <v>202</v>
       </c>
       <c r="M42" s="121" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="N42" s="148" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="O42" s="122" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="P42" s="149">
         <v>3</v>
@@ -24458,7 +24461,7 @@
       <c r="B43" s="127"/>
       <c r="C43" s="128"/>
       <c r="D43" s="129" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E43" s="130"/>
       <c r="F43" s="130"/>
@@ -24472,10 +24475,10 @@
       </c>
       <c r="M43" s="130"/>
       <c r="N43" s="152" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="O43" s="122" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="P43" s="153">
         <v>3</v>
@@ -24528,10 +24531,10 @@
     <row r="45" ht="13.5" spans="1:29">
       <c r="A45" s="33"/>
       <c r="B45" s="135" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C45" s="116" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D45" s="117"/>
       <c r="E45" s="119" t="s">
@@ -24539,7 +24542,7 @@
       </c>
       <c r="F45" s="119"/>
       <c r="G45" s="117" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -24549,13 +24552,13 @@
         <v>121</v>
       </c>
       <c r="M45" s="119" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="N45" s="146" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="O45" s="122" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="P45" s="147">
         <v>1</v>
@@ -24578,17 +24581,17 @@
       <c r="A46" s="33"/>
       <c r="B46" s="135"/>
       <c r="C46" s="120" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D46" s="122"/>
       <c r="E46" s="121"/>
       <c r="F46" s="121"/>
       <c r="G46" s="122" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H46" s="122"/>
       <c r="I46" s="57" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="J46" s="122"/>
       <c r="K46" s="122"/>
@@ -24596,13 +24599,13 @@
         <v>121</v>
       </c>
       <c r="M46" s="121" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="N46" s="148" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="O46" s="122" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="P46" s="149">
         <v>1</v>
@@ -24625,13 +24628,13 @@
       <c r="A47" s="33"/>
       <c r="B47" s="135"/>
       <c r="C47" s="120" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D47" s="122"/>
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="122" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H47" s="122"/>
       <c r="I47" s="57"/>
@@ -24642,10 +24645,10 @@
       </c>
       <c r="M47" s="121"/>
       <c r="N47" s="148" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="O47" s="122" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="P47" s="149">
         <v>1</v>
@@ -24668,13 +24671,13 @@
       <c r="A48" s="33"/>
       <c r="B48" s="135"/>
       <c r="C48" s="120" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D48" s="122"/>
       <c r="E48" s="121"/>
       <c r="F48" s="121"/>
       <c r="G48" s="122" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H48" s="122"/>
       <c r="I48" s="57"/>
@@ -24684,13 +24687,13 @@
         <v>202</v>
       </c>
       <c r="M48" s="121" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="N48" s="148" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="O48" s="122" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="P48" s="149">
         <v>1</v>
@@ -24713,13 +24716,13 @@
       <c r="A49" s="33"/>
       <c r="B49" s="135"/>
       <c r="C49" s="120" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D49" s="122"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121"/>
       <c r="G49" s="122" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H49" s="122"/>
       <c r="I49" s="57"/>
@@ -24729,13 +24732,13 @@
         <v>202</v>
       </c>
       <c r="M49" s="121" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="N49" s="148" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="O49" s="122" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="P49" s="149">
         <v>1</v>
@@ -24758,15 +24761,15 @@
       <c r="A50" s="33"/>
       <c r="B50" s="135"/>
       <c r="C50" s="120" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D50" s="122" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E50" s="121"/>
       <c r="F50" s="121"/>
       <c r="G50" s="122" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H50" s="122"/>
       <c r="I50" s="57"/>
@@ -24776,13 +24779,13 @@
         <v>202</v>
       </c>
       <c r="M50" s="155" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="N50" s="148" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="O50" s="122" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="P50" s="149">
         <v>1</v>
@@ -24806,14 +24809,14 @@
       <c r="B51" s="135"/>
       <c r="C51" s="120"/>
       <c r="D51" s="122" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E51" s="121" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F51" s="121"/>
       <c r="G51" s="122" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H51" s="122"/>
       <c r="I51" s="57"/>
@@ -24823,13 +24826,13 @@
         <v>202</v>
       </c>
       <c r="M51" s="121" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="N51" s="148" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="O51" s="122" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="P51" s="149">
         <v>1</v>
@@ -24852,15 +24855,15 @@
       <c r="A52" s="33"/>
       <c r="B52" s="135"/>
       <c r="C52" s="120" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D52" s="122" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E52" s="121"/>
       <c r="F52" s="121"/>
       <c r="G52" s="122" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H52" s="122"/>
       <c r="I52" s="57"/>
@@ -24871,10 +24874,10 @@
       </c>
       <c r="M52" s="121"/>
       <c r="N52" s="148" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="O52" s="122" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="149">
         <v>1</v>
@@ -24898,7 +24901,7 @@
       <c r="B53" s="135"/>
       <c r="C53" s="120"/>
       <c r="D53" s="122" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E53" s="121"/>
       <c r="F53" s="121"/>
@@ -24912,10 +24915,10 @@
       </c>
       <c r="M53" s="121"/>
       <c r="N53" s="148" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="O53" s="122" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="P53" s="149">
         <v>1</v>
@@ -24938,15 +24941,15 @@
       <c r="A54" s="60"/>
       <c r="B54" s="135"/>
       <c r="C54" s="120" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E54" s="121"/>
       <c r="F54" s="121"/>
       <c r="G54" s="122" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H54" s="122"/>
       <c r="I54" s="122"/>
@@ -24956,13 +24959,13 @@
         <v>121</v>
       </c>
       <c r="M54" s="121" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="N54" s="148" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="O54" s="122" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="P54" s="149">
         <v>1</v>
@@ -24986,7 +24989,7 @@
       <c r="B55" s="135"/>
       <c r="C55" s="120"/>
       <c r="D55" s="122" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E55" s="121"/>
       <c r="F55" s="121"/>
@@ -25000,10 +25003,10 @@
       </c>
       <c r="M55" s="121"/>
       <c r="N55" s="148" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="O55" s="122" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="P55" s="149">
         <v>1</v>
@@ -25026,10 +25029,10 @@
       <c r="A56" s="58"/>
       <c r="B56" s="135"/>
       <c r="C56" s="120" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D56" s="122" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E56" s="121"/>
       <c r="F56" s="121"/>
@@ -25042,13 +25045,13 @@
         <v>202</v>
       </c>
       <c r="M56" s="155" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="N56" s="148" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O56" s="122" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="P56" s="149">
         <v>3</v>
@@ -25071,7 +25074,7 @@
       <c r="A57" s="58"/>
       <c r="B57" s="135"/>
       <c r="C57" s="120" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D57" s="122"/>
       <c r="E57" s="121"/>
@@ -25085,13 +25088,13 @@
         <v>121</v>
       </c>
       <c r="M57" s="121" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="N57" s="148" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="O57" s="122" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="P57" s="149"/>
       <c r="Q57" s="121"/>
@@ -25112,10 +25115,10 @@
       <c r="A58" s="58"/>
       <c r="B58" s="135"/>
       <c r="C58" s="120" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E58" s="121"/>
       <c r="F58" s="121"/>
@@ -25128,13 +25131,13 @@
         <v>121</v>
       </c>
       <c r="M58" s="121" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="N58" s="148" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="O58" s="122" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="P58" s="149">
         <v>5</v>
@@ -25158,12 +25161,12 @@
       <c r="B59" s="135"/>
       <c r="C59" s="120"/>
       <c r="D59" s="122" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E59" s="121"/>
       <c r="F59" s="121"/>
       <c r="G59" s="122" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H59" s="122"/>
       <c r="I59" s="122"/>
@@ -25174,10 +25177,10 @@
       </c>
       <c r="M59" s="121"/>
       <c r="N59" s="148" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="O59" s="122" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="P59" s="149">
         <v>5</v>
@@ -25201,7 +25204,7 @@
       <c r="B60" s="135"/>
       <c r="C60" s="120"/>
       <c r="D60" s="122" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E60" s="121"/>
       <c r="F60" s="121"/>
@@ -25215,10 +25218,10 @@
       </c>
       <c r="M60" s="121"/>
       <c r="N60" s="148" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="O60" s="122" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="P60" s="149">
         <v>5</v>
@@ -25242,7 +25245,7 @@
       <c r="B61" s="135"/>
       <c r="C61" s="120"/>
       <c r="D61" s="122" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E61" s="121"/>
       <c r="F61" s="121"/>
@@ -25255,13 +25258,13 @@
         <v>202</v>
       </c>
       <c r="M61" s="155" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="N61" s="148" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O61" s="122" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="P61" s="149">
         <v>3</v>
@@ -25285,7 +25288,7 @@
       <c r="B62" s="135"/>
       <c r="C62" s="120"/>
       <c r="D62" s="122" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E62" s="121"/>
       <c r="F62" s="121"/>
@@ -25299,10 +25302,10 @@
       </c>
       <c r="M62" s="121"/>
       <c r="N62" s="148" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="O62" s="122" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="P62" s="149">
         <v>3</v>
@@ -25326,7 +25329,7 @@
       <c r="B63" s="135"/>
       <c r="C63" s="120"/>
       <c r="D63" s="122" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E63" s="121"/>
       <c r="F63" s="121"/>
@@ -25339,13 +25342,13 @@
         <v>202</v>
       </c>
       <c r="M63" s="155" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="N63" s="148" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="O63" s="122" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="P63" s="149">
         <v>3</v>
@@ -25369,12 +25372,12 @@
       <c r="B64" s="135"/>
       <c r="C64" s="120"/>
       <c r="D64" s="122" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E64" s="121"/>
       <c r="F64" s="121"/>
       <c r="G64" s="122" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H64" s="122"/>
       <c r="I64" s="122"/>
@@ -25385,10 +25388,10 @@
       </c>
       <c r="M64" s="155"/>
       <c r="N64" s="148" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="O64" s="122" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="P64" s="149">
         <v>3</v>
@@ -25412,7 +25415,7 @@
       <c r="B65" s="135"/>
       <c r="C65" s="120"/>
       <c r="D65" s="122" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E65" s="121"/>
       <c r="F65" s="121"/>
@@ -25425,13 +25428,13 @@
         <v>121</v>
       </c>
       <c r="M65" s="121" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="N65" s="148" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="O65" s="122" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="P65" s="149">
         <v>1</v>
@@ -25454,10 +25457,10 @@
       <c r="A66" s="58"/>
       <c r="B66" s="135"/>
       <c r="C66" s="120" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D66" s="122" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E66" s="121"/>
       <c r="F66" s="121"/>
@@ -25470,13 +25473,13 @@
         <v>121</v>
       </c>
       <c r="M66" s="121" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="N66" s="148" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="O66" s="122" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="P66" s="149">
         <v>3</v>
@@ -25500,7 +25503,7 @@
       <c r="B67" s="135"/>
       <c r="C67" s="120"/>
       <c r="D67" s="122" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E67" s="121"/>
       <c r="F67" s="121"/>
@@ -25514,10 +25517,10 @@
       </c>
       <c r="M67" s="121"/>
       <c r="N67" s="148" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="O67" s="122" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="P67" s="149">
         <v>3</v>
@@ -25541,7 +25544,7 @@
       <c r="B68" s="135"/>
       <c r="C68" s="120"/>
       <c r="D68" s="122" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E68" s="121"/>
       <c r="F68" s="121"/>
@@ -25555,10 +25558,10 @@
       </c>
       <c r="M68" s="121"/>
       <c r="N68" s="148" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="O68" s="122" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="P68" s="149">
         <v>1</v>
@@ -25582,7 +25585,7 @@
       <c r="B69" s="135"/>
       <c r="C69" s="120"/>
       <c r="D69" s="122" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E69" s="121"/>
       <c r="F69" s="121"/>
@@ -25596,10 +25599,10 @@
       </c>
       <c r="M69" s="121"/>
       <c r="N69" s="148" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="O69" s="122" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="P69" s="149">
         <v>1</v>
@@ -25623,7 +25626,7 @@
       <c r="B70" s="135"/>
       <c r="C70" s="120"/>
       <c r="D70" s="122" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E70" s="121"/>
       <c r="F70" s="121"/>
@@ -25637,10 +25640,10 @@
       </c>
       <c r="M70" s="121"/>
       <c r="N70" s="148" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="O70" s="122" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="P70" s="149">
         <v>3</v>
@@ -25664,7 +25667,7 @@
       <c r="B71" s="135"/>
       <c r="C71" s="120"/>
       <c r="D71" s="122" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E71" s="121"/>
       <c r="F71" s="121"/>
@@ -25678,10 +25681,10 @@
       </c>
       <c r="M71" s="121"/>
       <c r="N71" s="148" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="O71" s="122" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="P71" s="149">
         <v>3</v>
@@ -25705,7 +25708,7 @@
       <c r="B72" s="135"/>
       <c r="C72" s="120"/>
       <c r="D72" s="122" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
@@ -25719,10 +25722,10 @@
       </c>
       <c r="M72" s="121"/>
       <c r="N72" s="148" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="O72" s="122" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="P72" s="149">
         <v>3</v>
@@ -25760,10 +25763,10 @@
       </c>
       <c r="M73" s="121"/>
       <c r="N73" s="148" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="O73" s="122" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="P73" s="149">
         <v>3</v>
@@ -25801,10 +25804,10 @@
       </c>
       <c r="M74" s="121"/>
       <c r="N74" s="148" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="O74" s="122" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="P74" s="149">
         <v>3</v>
@@ -25828,7 +25831,7 @@
       <c r="B75" s="135"/>
       <c r="C75" s="120"/>
       <c r="D75" s="122" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E75" s="121"/>
       <c r="F75" s="121"/>
@@ -25841,13 +25844,13 @@
         <v>202</v>
       </c>
       <c r="M75" s="155" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="N75" s="148" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="O75" s="122" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="P75" s="149">
         <v>3</v>
@@ -25871,7 +25874,7 @@
       <c r="B76" s="135"/>
       <c r="C76" s="120"/>
       <c r="D76" s="122" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="121"/>
@@ -25884,13 +25887,13 @@
         <v>202</v>
       </c>
       <c r="M76" s="121" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="N76" s="148" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="O76" s="122" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="P76" s="149">
         <v>3</v>
@@ -25914,7 +25917,7 @@
       <c r="B77" s="135"/>
       <c r="C77" s="120"/>
       <c r="D77" s="122" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
@@ -25928,10 +25931,10 @@
       </c>
       <c r="M77" s="121"/>
       <c r="N77" s="148" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="O77" s="122" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="P77" s="149">
         <v>3</v>
@@ -25955,7 +25958,7 @@
       <c r="B78" s="135"/>
       <c r="C78" s="120"/>
       <c r="D78" s="122" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E78" s="121"/>
       <c r="F78" s="121"/>
@@ -25969,10 +25972,10 @@
       </c>
       <c r="M78" s="121"/>
       <c r="N78" s="148" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="O78" s="122" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="P78" s="149">
         <v>3</v>
@@ -25996,7 +25999,7 @@
       <c r="B79" s="135"/>
       <c r="C79" s="120"/>
       <c r="D79" s="122" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E79" s="121"/>
       <c r="F79" s="121"/>
@@ -26010,10 +26013,10 @@
       </c>
       <c r="M79" s="121"/>
       <c r="N79" s="148" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="O79" s="122" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="P79" s="149">
         <v>3</v>
@@ -26798,37 +26801,37 @@
   <sheetData>
     <row r="1" ht="63" spans="1:19">
       <c r="A1" s="62" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="E1" s="63" t="s">
         <v>97</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J1" s="98" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="99" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>100</v>
@@ -26843,21 +26846,21 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:19">
       <c r="A2" s="66" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="69" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>325</v>
@@ -26866,7 +26869,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
@@ -26880,18 +26883,18 @@
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:19">
       <c r="A3" s="66" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="69" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="70" t="s">
@@ -26901,7 +26904,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="75"/>
@@ -26915,18 +26918,18 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:19">
       <c r="A4" s="66" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
       <c r="F4" s="69" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="70" t="s">
@@ -26936,7 +26939,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K4" s="75"/>
       <c r="L4" s="75"/>
@@ -26950,18 +26953,18 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:19">
       <c r="A5" s="66" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
       <c r="F5" s="74" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="75" t="s">
@@ -26971,7 +26974,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K5" s="75"/>
       <c r="L5" s="75"/>
@@ -26985,16 +26988,16 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:19">
       <c r="A6" s="66" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
       <c r="F6" s="74" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="70" t="s">
@@ -27004,7 +27007,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K6" s="81"/>
       <c r="L6" s="81"/>
@@ -27018,16 +27021,16 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:19">
       <c r="A7" s="66" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
       <c r="F7" s="74" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="75" t="s">
@@ -27037,7 +27040,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -27051,16 +27054,16 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:19">
       <c r="A8" s="66" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C8" s="72"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="74" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="70" t="s">
@@ -27070,7 +27073,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="102"/>
@@ -27084,16 +27087,16 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:19">
       <c r="A9" s="66" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
       <c r="F9" s="69" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="75" t="s">
@@ -27103,7 +27106,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -27117,16 +27120,16 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:19">
       <c r="A10" s="66" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="69" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="70" t="s">
@@ -27136,7 +27139,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
@@ -27213,18 +27216,18 @@
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:19">
       <c r="A14" s="82" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
       <c r="D14" s="63" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>95</v>
@@ -27239,7 +27242,7 @@
         <v>1205</v>
       </c>
       <c r="K14" s="99" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>100</v>
@@ -27254,16 +27257,16 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:19">
       <c r="A15" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E15" s="86"/>
       <c r="F15" s="69" t="s">
@@ -27275,7 +27278,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
@@ -27289,12 +27292,12 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:19">
       <c r="A16" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="66"/>
       <c r="D16" s="88" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="69" t="s">
@@ -27318,12 +27321,12 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:19">
       <c r="A17" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="66"/>
       <c r="D17" s="90" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="69"/>
@@ -27345,16 +27348,16 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:19">
       <c r="A18" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E18" s="86"/>
       <c r="F18" s="80"/>
@@ -27376,12 +27379,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:19">
       <c r="A19" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
       <c r="D19" s="88" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="E19" s="88"/>
       <c r="F19" s="80"/>
@@ -27403,12 +27406,12 @@
     </row>
     <row r="20" ht="15.75" spans="1:19">
       <c r="A20" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
       <c r="D20" s="90" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="80"/>
@@ -27430,16 +27433,16 @@
     </row>
     <row r="21" ht="15.75" spans="1:19">
       <c r="A21" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="80"/>
@@ -27461,12 +27464,12 @@
     </row>
     <row r="22" ht="15.75" spans="1:19">
       <c r="A22" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
       <c r="D22" s="88" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E22" s="88"/>
       <c r="F22" s="80"/>
@@ -27488,12 +27491,12 @@
     </row>
     <row r="23" ht="15.75" spans="1:19">
       <c r="A23" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="90" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="80"/>
@@ -27515,16 +27518,16 @@
     </row>
     <row r="24" ht="15.75" spans="1:19">
       <c r="A24" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="80"/>
@@ -27546,12 +27549,12 @@
     </row>
     <row r="25" ht="15.75" spans="1:19">
       <c r="A25" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
       <c r="D25" s="88" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="80"/>
@@ -27573,12 +27576,12 @@
     </row>
     <row r="26" ht="15.75" spans="1:19">
       <c r="A26" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="90" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E26" s="90"/>
       <c r="F26" s="80"/>
@@ -27600,16 +27603,16 @@
     </row>
     <row r="27" ht="15.75" spans="1:19">
       <c r="A27" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="80"/>
@@ -27631,12 +27634,12 @@
     </row>
     <row r="28" ht="15.75" spans="1:19">
       <c r="A28" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
       <c r="D28" s="88" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="E28" s="88"/>
       <c r="F28" s="80"/>
@@ -27658,12 +27661,12 @@
     </row>
     <row r="29" ht="15.75" spans="1:19">
       <c r="A29" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="90" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="80"/>
@@ -27685,16 +27688,16 @@
     </row>
     <row r="30" ht="15.75" spans="1:19">
       <c r="A30" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="E30" s="86"/>
       <c r="F30" s="80"/>
@@ -27716,12 +27719,12 @@
     </row>
     <row r="31" ht="15.75" spans="1:19">
       <c r="A31" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
       <c r="D31" s="88" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E31" s="88"/>
       <c r="F31" s="80"/>
@@ -27743,12 +27746,12 @@
     </row>
     <row r="32" ht="15.75" spans="1:19">
       <c r="A32" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
       <c r="D32" s="90" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E32" s="90"/>
       <c r="F32" s="80"/>
@@ -27770,16 +27773,16 @@
     </row>
     <row r="33" ht="15.75" spans="1:19">
       <c r="A33" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E33" s="86"/>
       <c r="F33" s="80"/>
@@ -27801,12 +27804,12 @@
     </row>
     <row r="34" ht="15.75" spans="1:19">
       <c r="A34" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
       <c r="D34" s="88" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E34" s="88"/>
       <c r="F34" s="80"/>
@@ -27828,12 +27831,12 @@
     </row>
     <row r="35" ht="15.75" spans="1:19">
       <c r="A35" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
       <c r="D35" s="90" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="E35" s="90"/>
       <c r="F35" s="80"/>
@@ -27855,16 +27858,16 @@
     </row>
     <row r="36" ht="15.75" spans="1:19">
       <c r="A36" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E36" s="86"/>
       <c r="F36" s="80"/>
@@ -27886,12 +27889,12 @@
     </row>
     <row r="37" ht="15.75" spans="1:19">
       <c r="A37" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
       <c r="D37" s="88" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E37" s="88"/>
       <c r="F37" s="80"/>
@@ -27913,12 +27916,12 @@
     </row>
     <row r="38" ht="15.75" spans="1:19">
       <c r="A38" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="90" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E38" s="90"/>
       <c r="F38" s="80"/>
@@ -27940,16 +27943,16 @@
     </row>
     <row r="39" ht="15.75" spans="1:19">
       <c r="A39" s="84" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E39" s="86"/>
       <c r="F39" s="80"/>
@@ -27971,12 +27974,12 @@
     </row>
     <row r="40" ht="15.75" spans="1:19">
       <c r="A40" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
       <c r="D40" s="88" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E40" s="88"/>
       <c r="F40" s="80"/>
@@ -27998,12 +28001,12 @@
     </row>
     <row r="41" ht="15.75" spans="1:19">
       <c r="A41" s="92" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
       <c r="D41" s="93" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E41" s="93"/>
       <c r="F41" s="80"/>
@@ -28088,16 +28091,16 @@
     </row>
     <row r="45" ht="47.25" spans="1:19">
       <c r="A45" s="82" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B45" s="82"/>
       <c r="C45" s="83"/>
       <c r="D45" s="63" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E45" s="63"/>
       <c r="F45" s="64" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G45" s="65" t="s">
         <v>95</v>
@@ -28112,7 +28115,7 @@
         <v>1205</v>
       </c>
       <c r="K45" s="99" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>100</v>
@@ -28127,13 +28130,13 @@
     </row>
     <row r="46" ht="15.75" spans="1:19">
       <c r="A46" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D46" s="88"/>
       <c r="E46" s="88"/>
@@ -28154,7 +28157,7 @@
     </row>
     <row r="47" ht="15.75" spans="1:19">
       <c r="A47" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B47" s="66"/>
       <c r="C47" s="66"/>
@@ -28177,17 +28180,17 @@
     </row>
     <row r="48" ht="15.75" spans="1:19">
       <c r="A48" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B48" s="66"/>
       <c r="C48" s="66"/>
       <c r="D48" s="90" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E48" s="90"/>
       <c r="F48" s="80"/>
       <c r="G48" s="81" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H48" s="81"/>
       <c r="I48" s="80"/>
@@ -28204,13 +28207,13 @@
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:19">
       <c r="A49" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="88"/>
@@ -28231,7 +28234,7 @@
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:19">
       <c r="A50" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
@@ -28254,12 +28257,12 @@
     </row>
     <row r="51" ht="15.75" spans="1:19">
       <c r="A51" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="90" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E51" s="90"/>
       <c r="F51" s="80"/>
@@ -28279,13 +28282,13 @@
     </row>
     <row r="52" ht="15.75" spans="1:19">
       <c r="A52" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D52" s="88"/>
       <c r="E52" s="88"/>
@@ -28306,7 +28309,7 @@
     </row>
     <row r="53" ht="15.75" spans="1:19">
       <c r="A53" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
@@ -28329,12 +28332,12 @@
     </row>
     <row r="54" ht="15.75" spans="1:19">
       <c r="A54" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B54" s="66"/>
       <c r="C54" s="66"/>
       <c r="D54" s="90" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E54" s="90"/>
       <c r="F54" s="80"/>
@@ -28354,13 +28357,13 @@
     </row>
     <row r="55" ht="15.75" spans="1:19">
       <c r="A55" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D55" s="88"/>
       <c r="E55" s="88"/>
@@ -28381,12 +28384,12 @@
     </row>
     <row r="56" ht="15.75" spans="1:19">
       <c r="A56" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B56" s="66"/>
       <c r="C56" s="66"/>
       <c r="D56" s="97" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="80"/>
@@ -28408,12 +28411,12 @@
     </row>
     <row r="57" ht="15.75" spans="1:19">
       <c r="A57" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="90" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="E57" s="90"/>
       <c r="F57" s="80"/>
@@ -28433,13 +28436,13 @@
     </row>
     <row r="58" ht="15.75" spans="1:19">
       <c r="A58" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D58" s="88"/>
       <c r="E58" s="88"/>
@@ -28460,7 +28463,7 @@
     </row>
     <row r="59" ht="15.75" spans="1:19">
       <c r="A59" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
@@ -28483,12 +28486,12 @@
     </row>
     <row r="60" ht="15.75" spans="1:19">
       <c r="A60" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
       <c r="D60" s="90" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="E60" s="90"/>
       <c r="F60" s="80"/>
@@ -28508,13 +28511,13 @@
     </row>
     <row r="61" ht="15.75" spans="1:19">
       <c r="A61" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="88"/>
@@ -28535,7 +28538,7 @@
     </row>
     <row r="62" ht="15.75" spans="1:19">
       <c r="A62" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B62" s="66"/>
       <c r="C62" s="66"/>
@@ -28558,12 +28561,12 @@
     </row>
     <row r="63" ht="15.75" spans="1:19">
       <c r="A63" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B63" s="66"/>
       <c r="C63" s="66"/>
       <c r="D63" s="90" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="80"/>
@@ -28583,13 +28586,13 @@
     </row>
     <row r="64" ht="15.75" spans="1:19">
       <c r="A64" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D64" s="88"/>
       <c r="E64" s="88"/>
@@ -28610,7 +28613,7 @@
     </row>
     <row r="65" ht="15.75" spans="1:19">
       <c r="A65" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B65" s="66"/>
       <c r="C65" s="66"/>
@@ -28633,12 +28636,12 @@
     </row>
     <row r="66" ht="15.75" spans="1:19">
       <c r="A66" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B66" s="66"/>
       <c r="C66" s="66"/>
       <c r="D66" s="90" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E66" s="90"/>
       <c r="F66" s="80"/>
@@ -28658,13 +28661,13 @@
     </row>
     <row r="67" ht="15.75" spans="1:19">
       <c r="A67" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="88"/>
@@ -28685,7 +28688,7 @@
     </row>
     <row r="68" ht="15.75" spans="1:19">
       <c r="A68" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B68" s="66"/>
       <c r="C68" s="66"/>
@@ -28708,12 +28711,12 @@
     </row>
     <row r="69" ht="15.75" spans="1:19">
       <c r="A69" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B69" s="66"/>
       <c r="C69" s="66"/>
       <c r="D69" s="90" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="E69" s="90"/>
       <c r="F69" s="80"/>
@@ -28733,13 +28736,13 @@
     </row>
     <row r="70" ht="15.75" spans="1:19">
       <c r="A70" s="87" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D70" s="88"/>
       <c r="E70" s="88"/>
@@ -28760,7 +28763,7 @@
     </row>
     <row r="71" ht="15.75" spans="1:19">
       <c r="A71" s="96" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
@@ -28783,12 +28786,12 @@
     </row>
     <row r="72" ht="15.75" spans="1:19">
       <c r="A72" s="89" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B72" s="66"/>
       <c r="C72" s="66"/>
       <c r="D72" s="90" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="E72" s="90"/>
       <c r="F72" s="80"/>
@@ -28934,35 +28937,35 @@
     </row>
     <row r="79" ht="63" spans="1:19">
       <c r="A79" s="17" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C79" s="104" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E79" s="64"/>
       <c r="F79" s="64" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J79" s="98" t="s">
         <v>99</v>
       </c>
       <c r="K79" s="99" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="L79" s="17" t="s">
         <v>100</v>
@@ -32048,8 +32051,8 @@
   </sheetPr>
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -32085,23 +32088,23 @@
         <v>813</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="18" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>819</v>
@@ -32110,13 +32113,13 @@
         <v>97</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>100</v>
@@ -32162,34 +32165,34 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="24" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="43" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="44" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="46" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="R2" s="56"/>
       <c r="S2" s="56"/>
@@ -32204,13 +32207,13 @@
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:27">
       <c r="A3" s="26" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -32240,31 +32243,31 @@
     <row r="4" ht="13.5" spans="1:27">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="33" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="32" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="M4" s="26">
         <v>6</v>
@@ -32288,24 +32291,24 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="33" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
       <c r="G5" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="50" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M5" s="26">
         <v>6</v>
@@ -32329,7 +32332,7 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="33" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -32362,7 +32365,7 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="33" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -32395,7 +32398,7 @@
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="33" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -32405,14 +32408,14 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="51" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="31"/>
@@ -32434,7 +32437,7 @@
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="33" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -32467,7 +32470,7 @@
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="33" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -32499,25 +32502,25 @@
     <row r="11" ht="13.5" spans="1:27">
       <c r="A11" s="26"/>
       <c r="B11" s="26" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K11" s="33"/>
       <c r="M11" s="26">
@@ -32541,25 +32544,25 @@
     <row r="12" ht="13.5" spans="1:27">
       <c r="A12" s="26"/>
       <c r="B12" s="26" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="50"/>
@@ -32584,27 +32587,27 @@
     <row r="13" ht="19" customHeight="1" spans="1:27">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="32" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M13" s="26">
         <v>6</v>
@@ -32627,7 +32630,7 @@
     <row r="14" ht="19" customHeight="1" spans="1:27">
       <c r="A14" s="26"/>
       <c r="B14" s="34" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
@@ -32641,10 +32644,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="37" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="52"/>
@@ -32664,12 +32667,12 @@
     <row r="15" ht="19" customHeight="1" spans="1:27">
       <c r="A15" s="26"/>
       <c r="B15" s="26" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33" t="s">
@@ -32681,7 +32684,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="32"/>
       <c r="M15" s="26" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="49"/>
@@ -32701,10 +32704,10 @@
     <row r="16" ht="13.5" spans="1:27">
       <c r="A16" s="26"/>
       <c r="B16" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -32714,14 +32717,14 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="32" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M16" s="26">
         <v>3</v>
@@ -32745,11 +32748,11 @@
       <c r="A17" s="26"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="35" t="s">
@@ -32757,14 +32760,14 @@
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="35" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="37" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="M17" s="34">
         <v>3</v>
@@ -32788,20 +32791,20 @@
       <c r="A18" s="26"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
       <c r="G18" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="35" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="37"/>
@@ -32826,23 +32829,23 @@
     <row r="19" ht="19" customHeight="1" spans="1:27">
       <c r="A19" s="26"/>
       <c r="B19" s="34" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="37"/>
@@ -32867,25 +32870,25 @@
     <row r="20" ht="19" customHeight="1" spans="1:27">
       <c r="A20" s="26"/>
       <c r="B20" s="34" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="37"/>
       <c r="G20" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="35" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="37" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="M20" s="34">
         <v>5</v>
@@ -32908,25 +32911,25 @@
     <row r="21" ht="19" customHeight="1" spans="1:27">
       <c r="A21" s="26"/>
       <c r="B21" s="26" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="31" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="32"/>
@@ -32951,27 +32954,27 @@
     <row r="22" ht="19" customHeight="1" spans="1:27">
       <c r="A22" s="26"/>
       <c r="B22" s="26" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="32" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M22" s="26">
         <v>3</v>
@@ -32994,25 +32997,25 @@
     <row r="23" ht="19" customHeight="1" spans="1:27">
       <c r="A23" s="26"/>
       <c r="B23" s="26" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
       <c r="G23" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="32" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="M23" s="26">
         <v>3</v>
@@ -33034,13 +33037,13 @@
     </row>
     <row r="24" ht="13.5" spans="1:27">
       <c r="A24" s="26" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -33070,31 +33073,31 @@
     <row r="25" ht="13.5" spans="1:27">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="32" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="M25" s="26">
         <v>6</v>
@@ -33118,24 +33121,24 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="33" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
       <c r="G26" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="50" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M26" s="26">
         <v>6</v>
@@ -33159,7 +33162,7 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="33" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -33192,7 +33195,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="33" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -33225,7 +33228,7 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="33" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -33235,11 +33238,9 @@
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J29" s="33" t="s">
         <v>1665</v>
       </c>
+      <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="51"/>
       <c r="M29" s="26"/>
@@ -33262,7 +33263,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -33295,7 +33296,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="33" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -33327,18 +33328,18 @@
     <row r="32" ht="13.5" spans="1:27">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33" t="s">
@@ -33369,18 +33370,18 @@
     <row r="33" ht="13.5" spans="1:27">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33" t="s">
@@ -33412,16 +33413,16 @@
     <row r="34" ht="13.5" spans="1:27">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33" t="s">
@@ -33432,7 +33433,7 @@
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="32" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M34" s="26">
         <v>6</v>
@@ -33455,7 +33456,7 @@
     <row r="35" ht="13.5" spans="1:27">
       <c r="A35" s="26"/>
       <c r="B35" s="34" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="36"/>
@@ -33469,10 +33470,10 @@
       <c r="J35" s="35"/>
       <c r="K35" s="35"/>
       <c r="L35" s="37" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N35" s="36"/>
       <c r="O35" s="52"/>
@@ -33492,12 +33493,12 @@
     <row r="36" ht="13.5" spans="1:27">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="33" t="s">
@@ -33509,7 +33510,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="32"/>
       <c r="M36" s="26" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N36" s="31"/>
       <c r="O36" s="49"/>
@@ -33529,10 +33530,10 @@
     <row r="37" ht="13.5" spans="1:27">
       <c r="A37" s="26"/>
       <c r="B37" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -33549,7 +33550,7 @@
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="32" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M37" s="26">
         <v>3</v>
@@ -33573,11 +33574,11 @@
       <c r="A38" s="26"/>
       <c r="B38" s="34"/>
       <c r="C38" s="35" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="35" t="s">
@@ -33592,7 +33593,7 @@
       </c>
       <c r="K38" s="35"/>
       <c r="L38" s="37" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="M38" s="34">
         <v>3</v>
@@ -33616,13 +33617,13 @@
       <c r="A39" s="26"/>
       <c r="B39" s="34"/>
       <c r="C39" s="35" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
       <c r="F39" s="37"/>
       <c r="G39" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H39" s="35"/>
       <c r="I39" s="35" t="s">
@@ -33654,16 +33655,16 @@
     <row r="40" ht="13.5" spans="1:27">
       <c r="A40" s="26"/>
       <c r="B40" s="34" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="35" t="s">
@@ -33695,14 +33696,14 @@
     <row r="41" ht="13.5" spans="1:27">
       <c r="A41" s="26"/>
       <c r="B41" s="34" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="37"/>
       <c r="G41" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="35" t="s">
@@ -33713,7 +33714,7 @@
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="37" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="M41" s="34">
         <v>5</v>
@@ -33736,18 +33737,18 @@
     <row r="42" ht="13.5" spans="1:27">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="31" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33" t="s">
@@ -33779,16 +33780,16 @@
     <row r="43" ht="13.5" spans="1:27">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33" t="s">
@@ -33799,7 +33800,7 @@
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="32" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M43" s="26">
         <v>3</v>
@@ -33822,14 +33823,14 @@
     <row r="44" ht="13.5" spans="1:27">
       <c r="A44" s="26"/>
       <c r="B44" s="26" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="32"/>
       <c r="G44" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
@@ -33840,7 +33841,7 @@
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="32" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="M44" s="26">
         <v>3</v>
@@ -33865,10 +33866,10 @@
         <v>1688</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -33898,31 +33899,31 @@
     <row r="46" ht="13.5" spans="1:27">
       <c r="A46" s="26"/>
       <c r="B46" s="26" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>1689</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="K46" s="33"/>
       <c r="L46" s="32" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="M46" s="26">
         <v>6</v>
@@ -33946,24 +33947,24 @@
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="33" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
       <c r="F47" s="32"/>
       <c r="G47" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H47" s="33"/>
       <c r="I47" s="33" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="50" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M47" s="26">
         <v>6</v>
@@ -33987,7 +33988,7 @@
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="33" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -34020,7 +34021,7 @@
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="33" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
@@ -34053,7 +34054,7 @@
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="33" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -34086,7 +34087,7 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="33" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
@@ -34119,7 +34120,7 @@
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="33" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
@@ -34151,25 +34152,25 @@
     <row r="53" ht="13.5" spans="1:27">
       <c r="A53" s="26"/>
       <c r="B53" s="26" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="31" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="33" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K53" s="33"/>
       <c r="M53" s="26">
@@ -34193,25 +34194,25 @@
     <row r="54" ht="13.5" spans="1:27">
       <c r="A54" s="26"/>
       <c r="B54" s="26" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="33" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="K54" s="33"/>
       <c r="L54" s="50"/>
@@ -34236,27 +34237,27 @@
     <row r="55" ht="13.5" spans="1:27">
       <c r="A55" s="26"/>
       <c r="B55" s="26" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H55" s="33"/>
       <c r="I55" s="33" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="K55" s="33"/>
       <c r="L55" s="32" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M55" s="26">
         <v>6</v>
@@ -34279,7 +34280,7 @@
     <row r="56" ht="13.5" spans="1:27">
       <c r="A56" s="26"/>
       <c r="B56" s="34" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
@@ -34293,10 +34294,10 @@
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="37" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N56" s="36"/>
       <c r="O56" s="52"/>
@@ -34316,12 +34317,12 @@
     <row r="57" ht="13.5" spans="1:27">
       <c r="A57" s="26"/>
       <c r="B57" s="26" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="33" t="s">
@@ -34333,7 +34334,7 @@
       <c r="K57" s="33"/>
       <c r="L57" s="32"/>
       <c r="M57" s="26" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N57" s="31"/>
       <c r="O57" s="49"/>
@@ -34353,10 +34354,10 @@
     <row r="58" ht="13.5" spans="1:27">
       <c r="A58" s="26"/>
       <c r="B58" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
@@ -34366,14 +34367,14 @@
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>1627</v>
+        <v>1690</v>
       </c>
       <c r="K58" s="33"/>
       <c r="L58" s="32" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M58" s="26">
         <v>3</v>
@@ -34397,11 +34398,11 @@
       <c r="A59" s="26"/>
       <c r="B59" s="34"/>
       <c r="C59" s="35" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D59" s="36"/>
       <c r="E59" s="36" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="35" t="s">
@@ -34409,14 +34410,14 @@
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="35" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="K59" s="35"/>
       <c r="L59" s="37" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="M59" s="34">
         <v>3</v>
@@ -34440,20 +34441,20 @@
       <c r="A60" s="26"/>
       <c r="B60" s="34"/>
       <c r="C60" s="35" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="37"/>
       <c r="G60" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="K60" s="35"/>
       <c r="L60" s="37"/>
@@ -34478,23 +34479,23 @@
     <row r="61" ht="13.5" spans="1:27">
       <c r="A61" s="26"/>
       <c r="B61" s="34" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H61" s="35"/>
       <c r="I61" s="35" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="K61" s="35"/>
       <c r="L61" s="37"/>
@@ -34519,25 +34520,25 @@
     <row r="62" ht="13.5" spans="1:27">
       <c r="A62" s="26"/>
       <c r="B62" s="34" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="37"/>
       <c r="G62" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="35" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="K62" s="35"/>
       <c r="L62" s="37" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="M62" s="34">
         <v>5</v>
@@ -34560,25 +34561,25 @@
     <row r="63" ht="13.5" spans="1:27">
       <c r="A63" s="26"/>
       <c r="B63" s="26" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="31" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="32"/>
@@ -34603,27 +34604,27 @@
     <row r="64" ht="13.5" spans="1:27">
       <c r="A64" s="26"/>
       <c r="B64" s="26" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="32" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M64" s="26">
         <v>3</v>
@@ -34646,25 +34647,25 @@
     <row r="65" ht="13.5" spans="1:27">
       <c r="A65" s="26"/>
       <c r="B65" s="26" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="32"/>
       <c r="G65" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H65" s="33"/>
       <c r="I65" s="33" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="32" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="M65" s="26">
         <v>3</v>
@@ -34687,10 +34688,10 @@
     <row r="66" ht="13.5" spans="1:27">
       <c r="A66" s="26"/>
       <c r="B66" s="27" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -34719,34 +34720,34 @@
     </row>
     <row r="67" ht="13.5" spans="1:27">
       <c r="A67" s="26" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H67" s="33"/>
       <c r="I67" s="33" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="K67" s="33"/>
       <c r="L67" s="32" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="M67" s="26">
         <v>6</v>
@@ -34770,24 +34771,24 @@
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="33" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
       <c r="F68" s="32"/>
       <c r="G68" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H68" s="33"/>
       <c r="I68" s="33" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="K68" s="33"/>
       <c r="L68" s="50" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M68" s="26">
         <v>6</v>
@@ -34811,7 +34812,7 @@
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="33" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
@@ -34844,7 +34845,7 @@
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="33" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
@@ -34877,7 +34878,7 @@
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="33" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
@@ -34887,10 +34888,10 @@
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="33" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="K71" s="33"/>
       <c r="L71" s="51"/>
@@ -34914,7 +34915,7 @@
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="33" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
@@ -34947,7 +34948,7 @@
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="33" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
@@ -34979,25 +34980,25 @@
     <row r="74" ht="13.5" spans="1:27">
       <c r="A74" s="26"/>
       <c r="B74" s="26" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="31" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H74" s="33"/>
       <c r="I74" s="33" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="K74" s="33"/>
       <c r="M74" s="26">
@@ -35021,25 +35022,25 @@
     <row r="75" ht="13.5" spans="1:27">
       <c r="A75" s="26"/>
       <c r="B75" s="26" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="31" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H75" s="33"/>
       <c r="I75" s="33" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="K75" s="33"/>
       <c r="L75" s="50"/>
@@ -35064,27 +35065,27 @@
     <row r="76" ht="13.5" spans="1:27">
       <c r="A76" s="26"/>
       <c r="B76" s="26" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H76" s="33"/>
       <c r="I76" s="33" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J76" s="33" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="K76" s="33"/>
       <c r="L76" s="32" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M76" s="26">
         <v>6</v>
@@ -35107,7 +35108,7 @@
     <row r="77" ht="13.5" spans="1:27">
       <c r="A77" s="26"/>
       <c r="B77" s="34" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="36"/>
@@ -35121,10 +35122,10 @@
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="37" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N77" s="31"/>
       <c r="O77" s="49"/>
@@ -35144,12 +35145,12 @@
     <row r="78" ht="13.5" spans="1:27">
       <c r="A78" s="26"/>
       <c r="B78" s="26" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="33" t="s">
@@ -35161,7 +35162,7 @@
       <c r="K78" s="33"/>
       <c r="L78" s="32"/>
       <c r="M78" s="26" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N78" s="31"/>
       <c r="O78" s="49"/>
@@ -35181,10 +35182,10 @@
     <row r="79" ht="13.5" spans="1:27">
       <c r="A79" s="26"/>
       <c r="B79" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
@@ -35194,14 +35195,14 @@
       </c>
       <c r="H79" s="33"/>
       <c r="I79" s="33" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J79" s="33" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="32" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M79" s="26">
         <v>3</v>
@@ -35225,11 +35226,11 @@
       <c r="A80" s="26"/>
       <c r="B80" s="34"/>
       <c r="C80" s="35" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D80" s="36"/>
       <c r="E80" s="36" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="35" t="s">
@@ -35237,14 +35238,14 @@
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="35" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J80" s="35" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="37" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="M80" s="34">
         <v>3</v>
@@ -35268,20 +35269,20 @@
       <c r="A81" s="26"/>
       <c r="B81" s="34"/>
       <c r="C81" s="35" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" s="37"/>
       <c r="G81" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="35" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="J81" s="35" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="37"/>
@@ -35306,23 +35307,23 @@
     <row r="82" ht="13.5" spans="1:27">
       <c r="A82" s="26"/>
       <c r="B82" s="34" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="36"/>
       <c r="E82" s="36" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H82" s="35"/>
       <c r="I82" s="35" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="K82" s="35"/>
       <c r="L82" s="37"/>
@@ -35347,25 +35348,25 @@
     <row r="83" ht="13.5" spans="1:27">
       <c r="A83" s="26"/>
       <c r="B83" s="34" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
       <c r="F83" s="37"/>
       <c r="G83" s="35" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H83" s="35"/>
       <c r="I83" s="35" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J83" s="35" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="37" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="M83" s="34">
         <v>5</v>
@@ -35388,25 +35389,25 @@
     <row r="84" ht="13.5" spans="1:27">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="31" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="33" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="K84" s="33"/>
       <c r="L84" s="32"/>
@@ -35431,27 +35432,27 @@
     <row r="85" ht="13.5" spans="1:27">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="31"/>
       <c r="E85" s="31" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H85" s="33"/>
       <c r="I85" s="33" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="K85" s="33"/>
       <c r="L85" s="32" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M85" s="26">
         <v>3</v>
@@ -35474,25 +35475,25 @@
     <row r="86" ht="13.5" spans="1:27">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
       <c r="F86" s="32"/>
       <c r="G86" s="33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H86" s="33"/>
       <c r="I86" s="33" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="K86" s="33"/>
       <c r="L86" s="32" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="M86" s="26">
         <v>3</v>
@@ -36038,58 +36039,58 @@
   <sheetData>
     <row r="1" ht="47.25" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>822</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
@@ -36106,35 +36107,35 @@
     </row>
     <row r="2" ht="67.5" spans="1:30">
       <c r="A2" s="5" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="7" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="8" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -36156,25 +36157,25 @@
     </row>
     <row r="3" ht="67.5" spans="1:30">
       <c r="A3" s="10" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="12" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="6"/>
